--- a/Excel/Save/Manpower Consultants in Tamilnadu data_details 01-04-2023.xlsx
+++ b/Excel/Save/Manpower Consultants in Tamilnadu data_details 01-04-2023.xlsx
@@ -451,198 +451,198 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Yuva+Manpower+Consultancy+Pvt+Ltd/data=!4m7!3m6!1s0x3a5266fc18d07759:0x931ae55c74ae7886!8m2!3d13.0149511!4d80.204037!16s%2Fg%2F11b8_r0809!19sChIJWXfQGPxmUjoRhniudFzlGpM?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Overseas+Manpower+Corporation+Limited/data=!4m7!3m6!1s0x3a52670f0cdfb8af:0x5718920f00be1fd6!8m2!3d13.0134788!4d80.21337!16s%2Fg%2F11b66d046j!19sChIJr7jfDA9nUjoR1h--AA-SGFc?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yuva Manpower Consultancy Pvt Ltd</t>
+          <t>Overseas Manpower Corporation Limited</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Olympia Technology Park, Level 2 ,Altius Block,No -1, SIDCO Industrial Estate, Guindy, Chennai, Tamil Nadu 600032</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>090872 59589</t>
+          <t>Integrated Employment Office Complex, No.42, Alandur Road, Govt. Women ITI Premises, Thiru-vi-Ka Industrial Estate, Guindy, Chennai, Tamil Nadu 600032</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>omcmanpower.com</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Overseas+Manpower+Corporation+Limited/data=!4m7!3m6!1s0x3a52670f0cdfb8af:0x5718920f00be1fd6!8m2!3d13.0134788!4d80.21337!16s%2Fg%2F11b66d046j!19sChIJr7jfDA9nUjoR1h--AA-SGFc?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Yuva+Manpower+Consultancy+Pvt+Ltd/data=!4m7!3m6!1s0x3a5266fc18d07759:0x931ae55c74ae7886!8m2!3d13.0149511!4d80.204037!16s%2Fg%2F11b8_r0809!19sChIJWXfQGPxmUjoRhniudFzlGpM?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Overseas Manpower Corporation Limited</t>
+          <t>Yuva Manpower Consultancy Pvt Ltd</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Integrated Employment Office Complex, No.42, Alandur Road, Govt. Women ITI Premises, Thiru-vi-Ka Industrial Estate, Guindy, Chennai, Tamil Nadu 600032</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>omcmanpower.com</t>
+          <t>Olympia Technology Park, Level 2 ,Altius Block,No -1, SIDCO Industrial Estate, Guindy, Chennai, Tamil Nadu 600032</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>090872 59589</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/VT+Manpower+Consultancy+Services/data=!4m7!3m6!1s0x3a52664de24303e9:0x4b2810d26448d69b!8m2!3d13.0413076!4d80.2445159!16s%2Fg%2F1tg7_x9m!19sChIJ6QND4k1mUjoRm9ZIZNIQKEs?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Chennai+Best+Job+Consultancy+FREE+Job+Portal/data=!4m7!3m6!1s0x3a5266ca80d0f837:0xf7da22316ef3bf12!8m2!3d13.0311644!4d80.2049068!16s%2Fg%2F11d_w6nv73!19sChIJN_jQgMpmUjoREr_zbjEi2vc?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>VT Manpower Consultancy Services</t>
+          <t>Chennai Best Job Consultancy FREE Job Portal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mandira Apartments, 23, N Boag Rd, Drivers Colony, T. Nagar, Chennai, Tamil Nadu 600017</t>
+          <t>1st floor, shop, No.113, no 2, Pillaiyar Koil St, West Jafferkhanpet, Chennai, Tamil Nadu 600083</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>096000 69444</t>
+          <t>074018 88804</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Manpower+Consultancy/data=!4m7!3m6!1s0x3a5267003eb1f7bb:0xca622ee78d7cb72!8m2!3d13.0460404!4d80.2329063!16s%2Fg%2F1td6wj_f!19sChIJu_exPgBnUjoRcsvXeO4ipgw?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Appu+Manpower+Consultants/data=!4m7!3m6!1s0x3a5260d6cb0f9baf:0x83f2fb665845ab79!8m2!3d13.0275191!4d80.1803029!16s%2Fg%2F1tflw9h2!19sChIJr5sPy9ZgUjoReatFWGb78oM?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Manpower Consultancy</t>
+          <t>Appu Manpower Consultants</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>26WM+C57, Parthasarathi Puram, T. Nagar, Chennai, Tamil Nadu 600017</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>lifelineplacements.com</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>099622 99076</t>
+          <t>2/419, 1st Main Road Ambedkar Nagar, Manapakkam, Manapakkam, Chennai, Tamil Nadu 600116</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/SKR+Manpower+Services+%26+Consultants+Pte.+Ltd./data=!4m7!3m6!1s0x3a526751a8295555:0xcd3b8e192abca607!8m2!3d12.9967455!4d80.1953306!16s%2Fg%2F11f4tl6wd1!19sChIJVVUpqFFnUjoRB6a8KhmOO80?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Overseas+Manpower+Corporation+Ltd./data=!4m7!3m6!1s0x3a526711c5d66db1:0xcf5f7c262c12bd07!8m2!3d13.0196171!4d80.2198928!16s%2Fg%2F11h42qg9l7!19sChIJsW3WxRFnUjoRB70SLCZ8X88?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SKR Manpower Services &amp; Consultants Pte. Ltd.</t>
+          <t>Overseas Manpower Corporation Ltd.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>324, F-6, Reshma Apartments, MKN Rd, Thiruvalluvar Nagar, Alandur, Chennai, Tamil Nadu 600016</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>090922 22309</t>
+          <t>No. 42, Alandur Rd, Abith Colony, Guindy Industrial Estate, SIDCO Industrial Estate, Guindy, Chennai, Tamil Nadu 600032</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>omcmanpower.com</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Das+Manpower+Consultancy+Services/data=!4m7!3m6!1s0x3a5266c24ef74f45:0x98f48ba38aca0b2b!8m2!3d13.0506481!4d80.207627!16s%2Fg%2F11c60c6vgf!19sChIJRU_3TsJmUjoRKwvKiqOL9Jg?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Dynamic+Manpower+Consultancy/data=!4m7!3m6!1s0x3a52674c15555555:0xcc4b8d832699a5e0!8m2!3d13.0037008!4d80.1916911!16s%2Fg%2F1tfd0tr8!19sChIJVVVVFUxnUjoR4KWZJoONS8w?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Das Manpower Consultancy Services</t>
+          <t>Dynamic Manpower Consultancy</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>#178/3&amp;4, 3rd Floor JB Towers, Kumaran Colony Main Road, Vadapalani, Chennai, Tamil Nadu 600026</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>dcsjobs.com</t>
+          <t>No 1, B4, Parvathi Apartment Palayathan Street, Alandur, St Thomas Mount, St Thomas Mount, Chennai, Tamil Nadu 600016</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>098401 98941</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Chennai+Best+Job+Consultancy+FREE+Job+Portal/data=!4m7!3m6!1s0x3a5266ca80d0f837:0xf7da22316ef3bf12!8m2!3d13.0311644!4d80.2049068!16s%2Fg%2F11d_w6nv73!19sChIJN_jQgMpmUjoREr_zbjEi2vc?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Manpower+Consultancy/data=!4m7!3m6!1s0x3a5267003eb1f7bb:0xca622ee78d7cb72!8m2!3d13.0460404!4d80.2329063!16s%2Fg%2F1td6wj_f!19sChIJu_exPgBnUjoRcsvXeO4ipgw?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chennai Best Job Consultancy FREE Job Portal</t>
+          <t>Manpower Consultancy</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1st floor, shop, No.113, no 2, Pillaiyar Koil St, West Jafferkhanpet, Chennai, Tamil Nadu 600083</t>
+          <t>26WM+C57, Parthasarathi Puram, T. Nagar, Chennai, Tamil Nadu 600017</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>lifelineplacements.com</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>074018 88804</t>
+          <t>099622 99076</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/DJAI+Manpower+Consultancy+Services+Pvt+Ltd/data=!4m7!3m6!1s0x3a52640ba22de2dd:0xaa6b83b8ec032ba2!8m2!3d13.0986681!4d80.1914947!16s%2Fg%2F11clzv3mjj!19sChIJ3eItogtkUjoRoisD7LiDa6o?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Universal+Overseas+Consultants-+Leading+Overseas+job+consultancy+in+Chennai/data=!4m7!3m6!1s0x3a5266e3a0662b49:0x2644913682c8b9b0!8m2!3d13.0387823!4d80.2181669!16s%2Fg%2F1tfm529m!19sChIJSStmoONmUjoRsLnIgjaRRCY?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DJAI Manpower Consultancy Services Pvt Ltd</t>
+          <t>Universal Overseas Consultants- Leading Overseas job consultancy in Chennai</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>and 1 A 2nd Floor, Chennai 600101, 1, UR Nagar Ext Rd, U R Nagar Extension, Pandu Ranga Puram, Anna Nagar West Extension, Chennai, Tamil Nadu 600101</t>
+          <t>1st, 68, Mahadevan St, SM Nagar, Vivekanandapuram, West Mambalam, Chennai, Tamil Nadu 600033</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>djai.in</t>
+          <t>uocindia.com</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/M+R+S+Manpower+Consultancy/data=!4m7!3m6!1s0x3a5267aa25240eb3:0x79b40d52d4725202!8m2!3d13.0305246!4d80.2386468!16s%2Fg%2F1tkb3jsm!19sChIJsw4kJapnUjoRAlJy1FINtHk?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/ElShaddai+International+Recruitment+Services/data=!4m7!3m6!1s0x3a5267234fffffff:0x28f5227836eaae3a!8m2!3d13.0234169!4d80.2049409!16s%2Fg%2F11hzs7qlp2!19sChIJ____TyNnUjoROq7qNngi9Sg?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>M R S Manpower Consultancy</t>
+          <t>ElShaddai International Recruitment Services</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Old No. 470 New No. 700, 2nd Floor Anna Salai, Nandanam, Chennai, Tamil Nadu 600035</t>
+          <t>No: 2, IIndCross Street, Balaji Nagar, Ekkatuthangal, Chennai, Tamil Nadu 600032</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>080727 26150</t>
         </is>
       </c>
     </row>
@@ -666,215 +666,225 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/SEYON+MANPOWER+SERVICES+%28P%29+LTD.,/data=!4m7!3m6!1s0x3a52675a2ad0d775:0xfefb41a883e7f348!8m2!3d13.0568437!4d80.2136781!16s%2Fg%2F11j0n_n551!19sChIJddfQKlpnUjoRSPPng6hB-_4?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Das+Manpower+Consultancy+Services/data=!4m7!3m6!1s0x3a5266c24ef74f45:0x98f48ba38aca0b2b!8m2!3d13.0506481!4d80.207627!16s%2Fg%2F11c60c6vgf!19sChIJRU_3TsJmUjoRKwvKiqOL9Jg?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SEYON MANPOWER SERVICES (P) LTD.,</t>
+          <t>Das Manpower Consultancy Services</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>21a, Alagiri Nagar, Vadapalani, Chennai, Tamil Nadu 600026</t>
+          <t>#178/3&amp;4, 3rd Floor JB Towers, Kumaran Colony Main Road, Vadapalani, Chennai, Tamil Nadu 600026</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>seyonmanpower.com</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>099947 87116</t>
+          <t>dcsjobs.com</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Overseas+manpower+services/data=!4m7!3m6!1s0x3a526734db8cb979:0xf163c659cd72e25f!8m2!3d13.0485003!4d80.2045278!16s%2Fg%2F11jwlt3jbb!19sChIJebmM2zRnUjoRX-JyzVnGY_E?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/PROMPT+MANPOWER+SERVICES,+CHENNAI/data=!4m7!3m6!1s0x3a52678acbd75f89:0x160e849156a5e333!8m2!3d13.0402788!4d80.21677!16s%2Fg%2F11kv575fy9!19sChIJiV_Xy4pnUjoRM-OlVpGEDhY?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Overseas manpower services</t>
+          <t>PROMPT MANPOWER SERVICES, CHENNAI</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>No 10 29, Gangappa Street, Vadapalani, Chennai, Tamil Nadu 600026</t>
+          <t>GRT School Playground, NO.32/79, 2ND FLOOR BALAKRISHNAN STREET EXTENSION, near 7th Avenue, Ashok Nagar, Chennai, Tamil Nadu 600083</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>omcmanpower.com</t>
+          <t>promptmanpowerservice.com</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>063811 35331</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Appu+Manpower+Consultants/data=!4m7!3m6!1s0x3a5260d6cb0f9baf:0x83f2fb665845ab79!8m2!3d13.0275191!4d80.1803029!16s%2Fg%2F1tflw9h2!19sChIJr5sPy9ZgUjoReatFWGb78oM?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/X+L+Consultants/data=!4m7!3m6!1s0x3a526778ffffffff:0x5be851e476c61173!8m2!3d13.0261473!4d80.2022166!16s%2Fg%2F1td7g4mr!19sChIJ_____3hnUjoRcxHGduRR6Fs?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Appu Manpower Consultants</t>
+          <t>X L Consultants</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2/419, 1st Main Road Ambedkar Nagar, Manapakkam, Manapakkam, Chennai, Tamil Nadu 600116</t>
+          <t>82, Defence Colony 2nd Ave, Kalaimagal Nagar, Ekkatuthangal, Chennai, Tamil Nadu 600032</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/SS+International+Manpower+Services+Chennai/data=!4m7!3m6!1s0x3a52611f5577687b:0x2ed3bad38921abab!8m2!3d13.0381628!4d80.1650276!16s%2Fg%2F11b6v36s5b!19sChIJe2h3VR9hUjoRq6shidO60y4?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/SKR+Manpower+Services+%26+Consultants+Pte.+Ltd./data=!4m7!3m6!1s0x3a526751a8295555:0xcd3b8e192abca607!8m2!3d12.9967455!4d80.1953306!16s%2Fg%2F11f4tl6wd1!19sChIJVVUpqFFnUjoRB6a8KhmOO80?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SS International Manpower Services Chennai</t>
+          <t>SKR Manpower Services &amp; Consultants Pte. Ltd.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>No 16, Arcot Road, Opposite To Lakshmi Nagar Bus Stop, Lakshmi Nagar, Porur, Chennai, Tamil Nadu 600116</t>
+          <t>324, F-6, Reshma Apartments, MKN Rd, Thiruvalluvar Nagar, Alandur, Chennai, Tamil Nadu 600016</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>090922 22309</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/AA+Manpower+Solutions+-+Best+Job+Consultancy+In+Chennai/data=!4m7!3m6!1s0x3a5266e985a8fc99:0xf1df03060f5e6f8b!8m2!3d13.0527546!4d80.2101942!16s%2Fg%2F11f0_c3gns!19sChIJmfyohelmUjoRi29eDwYD3_E?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Empower+Jobs+%26+HR+Services/data=!4m7!3m6!1s0x3a5267966281d597:0xee545e7be964ccb0!8m2!3d13.0257926!4d80.2005566!16s%2Fg%2F11ngpjzyfw!19sChIJl9WBYpZnUjoRsMxk6XteVO4?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AA Manpower Solutions - Best Job Consultancy In Chennai</t>
+          <t>Empower Jobs &amp; HR Services</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>No 24, F1, 1st floor, Bajanai Koil 2nd St, near sims hospital backside, Vadapalani, Chennai, Tamil Nadu 600026</t>
+          <t>98 Defence colony Ekkattuthangal, Guindy, Chennai, Tamil Nadu 600032</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>empowerjobs.in</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>099623 38781</t>
+          <t>095977 44477</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Chennai+Manpower+consultancy/data=!4m7!3m6!1s0x3a5263f570011bcf:0xb988b4b64bfe0053!8m2!3d13.0996537!4d80.1868141!16s%2Fg%2F1ptz2pkk1!19sChIJzxsBcPVjUjoRUwD-S7a0iLk?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Paswi+Manpower+Consultant/data=!4m7!3m6!1s0x3a5260e23ea0a1ff:0xfa72a9a14a9a4b4f!8m2!3d13.0291776!4d80.1581078!16s%2Fg%2F11bzv2ql91!19sChIJ_6GgPuJgUjoRT0uaSqGpcvo?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Chennai Manpower consultancy</t>
+          <t>Paswi Manpower Consultant</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15, Madras Thiruvallur High Rd, Padi, Chennai, Tamil Nadu 600050</t>
+          <t>20A, 9th Cross St, near Muthu Store, Mangla Nagar, Porur, Chennai, Tamil Nadu 600116</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>paswigroup.com</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>095430 10622</t>
+          <t>Things to do</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Overseas+Manpower+Corporation+Ltd./data=!4m7!3m6!1s0x3a526711c5d66db1:0xcf5f7c262c12bd07!8m2!3d13.0196171!4d80.2198928!16s%2Fg%2F11h42qg9l7!19sChIJsW3WxRFnUjoRB70SLCZ8X88?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/VT+Manpower+Consultancy+Services/data=!4m7!3m6!1s0x3a52664de24303e9:0x4b2810d26448d69b!8m2!3d13.0413076!4d80.2445159!16s%2Fg%2F1tg7_x9m!19sChIJ6QND4k1mUjoRm9ZIZNIQKEs?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Overseas Manpower Corporation Ltd.</t>
+          <t>VT Manpower Consultancy Services</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>No. 42, Alandur Rd, Abith Colony, Guindy Industrial Estate, SIDCO Industrial Estate, Guindy, Chennai, Tamil Nadu 600032</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>omcmanpower.com</t>
+          <t>Mandira Apartments, 23, N Boag Rd, Drivers Colony, T. Nagar, Chennai, Tamil Nadu 600017</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>096000 69444</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Bharathi+Manpower+Consultant+%26+Security+Services/data=!4m7!3m6!1s0x3a52669a9bd9aa8d:0x1c9d88070218bc39!8m2!3d13.0692964!4d80.2192011!16s%2Fg%2F11c6r2jsb0!19sChIJjarZm5pmUjoRObwYAgeInRw?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Overseas+manpower+services/data=!4m7!3m6!1s0x3a526734db8cb979:0xf163c659cd72e25f!8m2!3d13.0485003!4d80.2045278!16s%2Fg%2F11jwlt3jbb!19sChIJebmM2zRnUjoRX-JyzVnGY_E?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bharathi Manpower Consultant &amp; Security Services</t>
+          <t>Overseas manpower services</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>No 741, Old No 53, Thiruveethi Amman Koil Street, Corporation Maternity Hospital, Aminjikarai, Chennai, Tamil Nadu 600029</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>093809 81144</t>
+          <t>No 10 29, Gangappa Street, Vadapalani, Chennai, Tamil Nadu 600026</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>omcmanpower.com</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/HRINC+-+Manpower+Recruitment+Consultants/data=!4m7!3m6!1s0x3a5265b15ba12213:0xc1173e87e61c392c!8m2!3d13.1103771!4d80.2381762!16s%2Fg%2F1tjgysy5!19sChIJEyKhW7FlUjoRLDkc5oc-F8E?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/AA+Manpower+Solutions+-+Best+Job+Consultancy+In+Chennai/data=!4m7!3m6!1s0x3a5266e985a8fc99:0xf1df03060f5e6f8b!8m2!3d13.0527546!4d80.2101942!16s%2Fg%2F11f0_c3gns!19sChIJmfyohelmUjoRi29eDwYD3_E?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HRINC - Manpower Recruitment Consultants</t>
+          <t>AA Manpower Solutions - Best Job Consultancy In Chennai</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NO:2/24, F6-B Block, A.P.Aashiyana Apts, Murugesan street, Foxen street, Perambur, Chennai, Tamil Nadu 600011</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>hrincconsultants.com</t>
+          <t>No 24, F1, 1st floor, Bajanai Koil 2nd St, near sims hospital backside, Vadapalani, Chennai, Tamil Nadu 600026</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>099623 38781</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/S.P+Manpower+Consultancy/data=!4m7!3m6!1s0x3a5267c719e33993:0x2d83835270c184a7!8m2!3d13.0535152!4d80.2643026!16s%2Fg%2F11j0d_ktzd!19sChIJkznjGcdnUjoRp4TBcFKDgy0?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/SS+International+Manpower+Services+Chennai/data=!4m7!3m6!1s0x3a52611f5577687b:0x2ed3bad38921abab!8m2!3d13.0381628!4d80.1650276!16s%2Fg%2F11b6v36s5b!19sChIJe2h3VR9hUjoRq6shidO60y4?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S.P Manpower Consultancy</t>
+          <t>SS International Manpower Services Chennai</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ueniweb.com</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>ueniweb.com</t>
+          <t>No 16, Arcot Road, Opposite To Lakshmi Nagar Bus Stop, Lakshmi Nagar, Porur, Chennai, Tamil Nadu 600116</t>
         </is>
       </c>
     </row>
